--- a/SuppXLS/Scen_3.1_ELC_Discrete_NCAP.xlsx
+++ b/SuppXLS/Scen_3.1_ELC_Discrete_NCAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\esma\OTAI\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\esma\DEVTAI\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F8103-1100-4F9B-B3B5-71D1C5A936D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578E20D-6A73-48C7-B805-D7441D5DD9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43890" yWindow="1050" windowWidth="18165" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="870" windowWidth="21600" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_DISC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Pset_PN</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Unit Size in GW</t>
+  </si>
+  <si>
+    <t>E*HVO*</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -524,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>4.9999999999999998E-7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.4</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.15</v>
+        <v>4.9999999999999998E-7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,6 +593,17 @@
         <v>19</v>
       </c>
       <c r="C17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
         <v>0.03</v>
       </c>
     </row>
